--- a/APIFirstTest/DataQueries/Citypairs/~$SampleAppData.xlsx
+++ b/APIFirstTest/DataQueries/Citypairs/~$SampleAppData.xlsx
@@ -77,9 +77,6 @@
     <t>DepartureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfurt </t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Portland</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
   </si>
 </sst>
 </file>
@@ -282,10 +282,10 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -587,7 +587,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -617,7 +617,7 @@
       <c s="2" t="s">
         <v>3</v>
       </c>
-      <c s="6" t="s">
+      <c s="7" t="s">
         <v>19</v>
       </c>
       <c s="2" t="s">
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row>
@@ -644,9 +644,9 @@
         <v>3</v>
       </c>
       <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="7">
+        <v>22</v>
+      </c>
+      <c s="6">
         <v>78680</v>
       </c>
       <c s="1" t="s">
@@ -673,14 +673,14 @@
       <c s="1" t="s">
         <v>10</v>
       </c>
-      <c s="7">
+      <c s="6">
         <v>78587</v>
       </c>
       <c s="1" t="s">
-        <v>25</v>
-      </c>
-      <c s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c s="1" t="s">
+        <v>20</v>
       </c>
       <c s="1"/>
       <c s="4">
@@ -700,14 +700,14 @@
       <c s="1" t="s">
         <v>10</v>
       </c>
-      <c s="7">
+      <c s="6">
         <v>78678</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
       </c>
       <c s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="1"/>
       <c s="4">
@@ -727,11 +727,11 @@
       <c s="1" t="s">
         <v>10</v>
       </c>
-      <c s="7">
+      <c s="6">
         <v>78677</v>
       </c>
       <c s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c s="1" t="s">
         <v>1</v>
@@ -752,16 +752,16 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="7">
+        <v>22</v>
+      </c>
+      <c s="6">
         <v>78675</v>
       </c>
       <c s="1" t="s">
+        <v>24</v>
+      </c>
+      <c s="1" t="s">
         <v>25</v>
-      </c>
-      <c s="1" t="s">
-        <v>26</v>
       </c>
       <c s="1"/>
       <c s="4">
@@ -770,7 +770,7 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c s="1">
         <v>13495</v>
@@ -781,11 +781,11 @@
       <c s="1" t="s">
         <v>10</v>
       </c>
-      <c s="7">
+      <c s="6">
         <v>78676</v>
       </c>
       <c s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -806,16 +806,16 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
-        <v>23</v>
-      </c>
-      <c s="7">
+        <v>22</v>
+      </c>
+      <c s="6">
         <v>78674</v>
       </c>
       <c s="1" t="s">
+        <v>26</v>
+      </c>
+      <c s="1" t="s">
         <v>20</v>
-      </c>
-      <c s="1" t="s">
-        <v>21</v>
       </c>
       <c s="1"/>
       <c s="4">
@@ -835,14 +835,14 @@
       <c s="1" t="s">
         <v>10</v>
       </c>
-      <c s="7">
+      <c s="6">
         <v>78676</v>
       </c>
       <c s="1" t="s">
         <v>18</v>
       </c>
       <c s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c s="1"/>
       <c s="4">
